--- a/templates/anepc_template.xlsx
+++ b/templates/anepc_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geral\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B318A7-C925-4D74-85E7-AAE41B7210D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75465A6B-693F-4BD6-B799-EAB70C2435D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{430CD659-EAEA-4DE7-8894-3AC5E0B8EDA6}"/>
   </bookViews>
@@ -550,7 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,114 +590,111 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1079,7 +1076,7 @@
   <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I124" sqref="I124:J124"/>
+      <selection activeCell="B7" sqref="B7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1101,88 +1098,88 @@
   <sheetData>
     <row r="1" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="str">
+      <c r="B7" s="21" t="str">
         <f>"Dispositivo Especial Combate Incêndios Rurais (DECIR )        Período:"</f>
         <v>Dispositivo Especial Combate Incêndios Rurais (DECIR )        Período:</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="15"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
     </row>
     <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="16"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="13" spans="2:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
@@ -1191,1153 +1188,1153 @@
       <c r="C13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="35" t="s">
+      <c r="E13" s="50"/>
+      <c r="F13" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="35"/>
+      <c r="G13" s="45"/>
       <c r="H13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="38"/>
+      <c r="J13" s="42"/>
     </row>
     <row r="14" spans="2:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="47"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="40"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="4"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="31"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="31"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
     </row>
     <row r="19" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
     </row>
     <row r="20" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="31"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
     </row>
     <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="31"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
     </row>
     <row r="22" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
     </row>
     <row r="23" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="31"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
     </row>
     <row r="24" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="31"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="31"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
     </row>
     <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="31"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
     <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="31"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="26"/>
     </row>
     <row r="27" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="31"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="26"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="31"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="31"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="31"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
     </row>
     <row r="30" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="31"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="26"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="31"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="31" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="31"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="31"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="32" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="31"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
     </row>
     <row r="33" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="31"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="31"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="34" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="31"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="26"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="31"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="35" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="31"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="26"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="31"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="26"/>
     </row>
     <row r="36" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="31"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="26"/>
     </row>
     <row r="37" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="31"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="26"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="31"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
     </row>
     <row r="38" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="30"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="31"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="26"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="31"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="26"/>
     </row>
     <row r="39" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="31"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="26"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="31"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="26"/>
     </row>
     <row r="40" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="31"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="31"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="31"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="31"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="31"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="31"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="26"/>
     </row>
     <row r="43" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="31"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="26"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="31"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
     </row>
     <row r="44" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="31"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="26"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="30"/>
-      <c r="J44" s="31"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="26"/>
     </row>
     <row r="45" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="31"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="31"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="26"/>
     </row>
     <row r="46" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="31"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="31"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="26"/>
     </row>
     <row r="47" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="31"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="26"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="31"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="26"/>
     </row>
     <row r="48" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="30"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="31"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="26"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="31"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="26"/>
     </row>
     <row r="49" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="30"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="31"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="30"/>
-      <c r="J49" s="31"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
     </row>
     <row r="50" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="30"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="31"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="26"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="30"/>
-      <c r="J50" s="31"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="26"/>
     </row>
     <row r="51" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="31"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="31"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="30"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="31"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="26"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="31"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="26"/>
     </row>
     <row r="53" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="31"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="26"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="31"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="26"/>
     </row>
     <row r="54" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="31"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="26"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="30"/>
-      <c r="J54" s="31"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="26"/>
     </row>
     <row r="55" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="31"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="26"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="31"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="26"/>
     </row>
     <row r="56" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="31"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="31"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="26"/>
     </row>
     <row r="57" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="31"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="26"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="31"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="26"/>
     </row>
     <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="30"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="31"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="26"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="30"/>
-      <c r="J58" s="31"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="26"/>
     </row>
     <row r="59" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="30"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="31"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="26"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="31"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="26"/>
     </row>
     <row r="60" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="30"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="31"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="26"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="30"/>
-      <c r="J60" s="31"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="26"/>
     </row>
     <row r="61" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="31"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="26"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="31"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="26"/>
     </row>
     <row r="62" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="31"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="26"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="30"/>
-      <c r="J62" s="31"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="26"/>
     </row>
     <row r="63" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="31"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="26"/>
       <c r="H63" s="6"/>
-      <c r="I63" s="30"/>
-      <c r="J63" s="31"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="26"/>
     </row>
     <row r="64" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="30"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="31"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="26"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="30"/>
-      <c r="J64" s="31"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="26"/>
     </row>
     <row r="65" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="30"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="31"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="26"/>
       <c r="H65" s="6"/>
-      <c r="I65" s="30"/>
-      <c r="J65" s="31"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="26"/>
     </row>
     <row r="66" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="30"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="31"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="26"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="30"/>
-      <c r="J66" s="31"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="30"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="31"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="26"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="31"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="26"/>
     </row>
     <row r="68" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="30"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="31"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="26"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="30"/>
-      <c r="J68" s="31"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="26"/>
     </row>
     <row r="69" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="30"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="30"/>
-      <c r="G69" s="31"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="26"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="30"/>
-      <c r="J69" s="31"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="26"/>
     </row>
     <row r="70" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="30"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="30"/>
-      <c r="G70" s="31"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="26"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="30"/>
-      <c r="J70" s="31"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="26"/>
     </row>
     <row r="71" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="30"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="30"/>
-      <c r="G71" s="31"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="26"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="30"/>
-      <c r="J71" s="31"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="26"/>
     </row>
     <row r="72" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="30"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="30"/>
-      <c r="G72" s="31"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="26"/>
       <c r="H72" s="6"/>
-      <c r="I72" s="30"/>
-      <c r="J72" s="31"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="26"/>
     </row>
     <row r="73" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="31"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="26"/>
       <c r="H73" s="6"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="31"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="26"/>
     </row>
     <row r="74" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="31"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="26"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="31"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="26"/>
     </row>
     <row r="75" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="30"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="30"/>
-      <c r="G75" s="31"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="26"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="26"/>
       <c r="H75" s="6"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="31"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
     </row>
     <row r="76" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="30"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="30"/>
-      <c r="G76" s="31"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="26"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="26"/>
       <c r="H76" s="6"/>
-      <c r="I76" s="30"/>
-      <c r="J76" s="31"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
     </row>
     <row r="77" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="30"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="30"/>
-      <c r="G77" s="31"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="26"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="26"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="30"/>
-      <c r="J77" s="31"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="26"/>
     </row>
     <row r="78" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="30"/>
-      <c r="G78" s="31"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="26"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="26"/>
       <c r="H78" s="6"/>
-      <c r="I78" s="30"/>
-      <c r="J78" s="31"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
     </row>
     <row r="79" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="31"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="26"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="26"/>
       <c r="H79" s="6"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="31"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="26"/>
     </row>
     <row r="80" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
-      <c r="D80" s="30"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="31"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="26"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="26"/>
       <c r="H80" s="6"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="31"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="26"/>
     </row>
     <row r="81" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="30"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="30"/>
-      <c r="G81" s="31"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="26"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="26"/>
       <c r="H81" s="6"/>
-      <c r="I81" s="30"/>
-      <c r="J81" s="31"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="26"/>
     </row>
     <row r="82" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
-      <c r="D82" s="30"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="30"/>
-      <c r="G82" s="31"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="26"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="26"/>
       <c r="H82" s="6"/>
-      <c r="I82" s="30"/>
-      <c r="J82" s="31"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="26"/>
     </row>
     <row r="83" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="30"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="30"/>
-      <c r="G83" s="31"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="26"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="26"/>
       <c r="H83" s="6"/>
-      <c r="I83" s="30"/>
-      <c r="J83" s="31"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="26"/>
     </row>
     <row r="84" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
-      <c r="D84" s="30"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="30"/>
-      <c r="G84" s="31"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="26"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="26"/>
       <c r="H84" s="6"/>
-      <c r="I84" s="30"/>
-      <c r="J84" s="31"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="26"/>
     </row>
     <row r="85" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
-      <c r="D85" s="30"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="30"/>
-      <c r="G85" s="31"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="26"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="26"/>
       <c r="H85" s="6"/>
-      <c r="I85" s="30"/>
-      <c r="J85" s="31"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="86" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
-      <c r="D86" s="30"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="30"/>
-      <c r="G86" s="31"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="26"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="26"/>
       <c r="H86" s="6"/>
-      <c r="I86" s="30"/>
-      <c r="J86" s="31"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="26"/>
     </row>
     <row r="87" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="30"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="30"/>
-      <c r="G87" s="31"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="26"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="26"/>
       <c r="H87" s="6"/>
-      <c r="I87" s="30"/>
-      <c r="J87" s="31"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="26"/>
     </row>
     <row r="88" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
-      <c r="D88" s="30"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="30"/>
-      <c r="G88" s="31"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="26"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="26"/>
       <c r="H88" s="6"/>
-      <c r="I88" s="30"/>
-      <c r="J88" s="31"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="26"/>
     </row>
     <row r="89" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="30"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="30"/>
-      <c r="G89" s="31"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="26"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="26"/>
       <c r="H89" s="6"/>
-      <c r="I89" s="30"/>
-      <c r="J89" s="31"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="26"/>
     </row>
     <row r="90" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="30"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="30"/>
-      <c r="G90" s="31"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="26"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="26"/>
       <c r="H90" s="6"/>
-      <c r="I90" s="30"/>
-      <c r="J90" s="31"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="26"/>
     </row>
     <row r="91" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="31"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="26"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="26"/>
       <c r="H91" s="6"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="31"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="26"/>
     </row>
     <row r="92" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="30"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="30"/>
-      <c r="G92" s="31"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="26"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="26"/>
       <c r="H92" s="6"/>
-      <c r="I92" s="30"/>
-      <c r="J92" s="31"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="26"/>
     </row>
     <row r="93" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
-      <c r="D93" s="30"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="30"/>
-      <c r="G93" s="31"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="26"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="26"/>
       <c r="H93" s="6"/>
-      <c r="I93" s="30"/>
-      <c r="J93" s="31"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="26"/>
     </row>
     <row r="94" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="30"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="30"/>
-      <c r="G94" s="31"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="26"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="26"/>
       <c r="H94" s="6"/>
-      <c r="I94" s="30"/>
-      <c r="J94" s="31"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="26"/>
     </row>
     <row r="95" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="31"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="26"/>
       <c r="H95" s="6"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="31"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="26"/>
     </row>
     <row r="96" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="30"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="30"/>
-      <c r="G96" s="31"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="26"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="26"/>
       <c r="H96" s="6"/>
-      <c r="I96" s="30"/>
-      <c r="J96" s="31"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="26"/>
     </row>
     <row r="97" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="30"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="30"/>
-      <c r="G97" s="31"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="26"/>
       <c r="H97" s="6"/>
-      <c r="I97" s="30"/>
-      <c r="J97" s="31"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="26"/>
     </row>
     <row r="98" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="30"/>
-      <c r="G98" s="31"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="26"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="26"/>
       <c r="H98" s="6"/>
-      <c r="I98" s="30"/>
-      <c r="J98" s="31"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="26"/>
     </row>
     <row r="99" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="30"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="30"/>
-      <c r="G99" s="31"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="26"/>
       <c r="H99" s="6"/>
-      <c r="I99" s="30"/>
-      <c r="J99" s="31"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="26"/>
     </row>
     <row r="100" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="30"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="30"/>
-      <c r="G100" s="31"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="26"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="26"/>
       <c r="H100" s="6"/>
-      <c r="I100" s="30"/>
-      <c r="J100" s="31"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="26"/>
     </row>
     <row r="101" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="30"/>
-      <c r="G101" s="31"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="26"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="26"/>
       <c r="H101" s="6"/>
-      <c r="I101" s="30"/>
-      <c r="J101" s="31"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="26"/>
     </row>
     <row r="102" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="30"/>
-      <c r="G102" s="31"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="26"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="26"/>
       <c r="H102" s="6"/>
-      <c r="I102" s="30"/>
-      <c r="J102" s="31"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="26"/>
     </row>
     <row r="103" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="31"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="26"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="26"/>
       <c r="H103" s="6"/>
-      <c r="I103" s="30"/>
-      <c r="J103" s="31"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="26"/>
     </row>
     <row r="104" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="30"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="30"/>
-      <c r="G104" s="31"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="26"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="26"/>
       <c r="H104" s="6"/>
-      <c r="I104" s="30"/>
-      <c r="J104" s="31"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="26"/>
     </row>
     <row r="105" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="30"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="30"/>
-      <c r="G105" s="31"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="26"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="26"/>
       <c r="H105" s="6"/>
-      <c r="I105" s="30"/>
-      <c r="J105" s="31"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="26"/>
     </row>
     <row r="106" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="30"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="30"/>
-      <c r="G106" s="31"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="26"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="26"/>
       <c r="H106" s="6"/>
-      <c r="I106" s="30"/>
-      <c r="J106" s="31"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="26"/>
     </row>
     <row r="107" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="30"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="30"/>
-      <c r="G107" s="31"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="26"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="26"/>
       <c r="H107" s="6"/>
-      <c r="I107" s="30"/>
-      <c r="J107" s="31"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="26"/>
     </row>
     <row r="108" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="30"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="30"/>
-      <c r="G108" s="31"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="26"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="26"/>
       <c r="H108" s="6"/>
-      <c r="I108" s="30"/>
-      <c r="J108" s="31"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="26"/>
     </row>
     <row r="109" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="30"/>
-      <c r="E109" s="31"/>
-      <c r="F109" s="30"/>
-      <c r="G109" s="31"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="26"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="26"/>
       <c r="H109" s="6"/>
-      <c r="I109" s="30"/>
-      <c r="J109" s="31"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="26"/>
     </row>
     <row r="110" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="30"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="30"/>
-      <c r="G110" s="31"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="26"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="26"/>
       <c r="H110" s="6"/>
-      <c r="I110" s="30"/>
-      <c r="J110" s="31"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="26"/>
     </row>
     <row r="111" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="30"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="30"/>
-      <c r="G111" s="31"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="26"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="26"/>
       <c r="H111" s="6"/>
-      <c r="I111" s="30"/>
-      <c r="J111" s="31"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="26"/>
     </row>
     <row r="112" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
-      <c r="D112" s="30"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="30"/>
-      <c r="G112" s="31"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="26"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="26"/>
       <c r="H112" s="6"/>
-      <c r="I112" s="30"/>
-      <c r="J112" s="31"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="26"/>
     </row>
     <row r="113" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
-      <c r="D113" s="30"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="30"/>
-      <c r="G113" s="31"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="26"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="26"/>
       <c r="H113" s="6"/>
-      <c r="I113" s="30"/>
-      <c r="J113" s="31"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="26"/>
     </row>
     <row r="114" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="31"/>
-      <c r="F114" s="30"/>
-      <c r="G114" s="31"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="26"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="26"/>
       <c r="H114" s="6"/>
-      <c r="I114" s="30"/>
-      <c r="J114" s="31"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="26"/>
     </row>
     <row r="115" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
-      <c r="D115" s="30"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="30"/>
-      <c r="G115" s="31"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="26"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="26"/>
       <c r="H115" s="6"/>
-      <c r="I115" s="30"/>
-      <c r="J115" s="31"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="26"/>
     </row>
     <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="36" t="s">
+      <c r="F116" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G116" s="37"/>
+      <c r="G116" s="41"/>
       <c r="H116" s="10">
         <f>SUM(H14:H115)</f>
         <v>0</v>
@@ -2347,79 +2344,376 @@
     </row>
     <row r="117" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="20" t="s">
+      <c r="B118" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="21"/>
-      <c r="D118" s="21"/>
-      <c r="E118" s="21"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="21"/>
-      <c r="H118" s="21"/>
-      <c r="I118" s="21"/>
-      <c r="J118" s="22"/>
+      <c r="C118" s="28"/>
+      <c r="D118" s="28"/>
+      <c r="E118" s="28"/>
+      <c r="F118" s="28"/>
+      <c r="G118" s="28"/>
+      <c r="H118" s="28"/>
+      <c r="I118" s="28"/>
+      <c r="J118" s="29"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="23"/>
-      <c r="C119" s="24"/>
-      <c r="D119" s="24"/>
-      <c r="E119" s="24"/>
-      <c r="F119" s="24"/>
-      <c r="G119" s="24"/>
-      <c r="H119" s="24"/>
-      <c r="I119" s="24"/>
-      <c r="J119" s="25"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="31"/>
+      <c r="D119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+      <c r="J119" s="32"/>
     </row>
     <row r="120" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="41"/>
-      <c r="D120" s="41"/>
-      <c r="E120" s="26"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="26"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="16"/>
+      <c r="H120" s="48"/>
+      <c r="I120" s="48"/>
+      <c r="J120" s="16"/>
     </row>
     <row r="121" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C121" s="12"/>
-      <c r="D121" s="33" t="s">
+      <c r="D121" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G121" s="42" t="s">
+      <c r="G121" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H121" s="43"/>
-      <c r="I121" s="44"/>
+      <c r="H121" s="34"/>
+      <c r="I121" s="35"/>
     </row>
     <row r="122" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="13"/>
-      <c r="D122" s="32"/>
-      <c r="G122" s="49"/>
-      <c r="H122" s="50"/>
-      <c r="I122" s="51"/>
+      <c r="D122" s="17"/>
+      <c r="G122" s="22"/>
+      <c r="H122" s="23"/>
+      <c r="I122" s="24"/>
       <c r="J122" s="14"/>
     </row>
     <row r="123" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D123" s="34" t="s">
+      <c r="D123" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G123" s="45" t="s">
+      <c r="G123" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H123" s="46"/>
-      <c r="I123" s="47"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="38"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="13"/>
       <c r="B124" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I124" s="48" t="s">
+      <c r="I124" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J124" s="48"/>
+      <c r="J124" s="39"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="321">
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="C120:D120"/>
+    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
     <mergeCell ref="B5:J6"/>
     <mergeCell ref="B2:J4"/>
     <mergeCell ref="G122:I122"/>
@@ -2444,303 +2738,6 @@
     <mergeCell ref="I103:J103"/>
     <mergeCell ref="I104:J104"/>
     <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="H120:I120"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B8:I8"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/templates/anepc_template.xlsx
+++ b/templates/anepc_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geral\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75465A6B-693F-4BD6-B799-EAB70C2435D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0144F1AB-2BCE-48D2-AC7D-64C3E0FBF598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{430CD659-EAEA-4DE7-8894-3AC5E0B8EDA6}"/>
   </bookViews>
@@ -550,7 +550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -678,6 +678,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -695,6 +701,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1157,10 +1169,7 @@
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="21" t="str">
-        <f>"Dispositivo Especial Combate Incêndios Rurais (DECIR )        Período:"</f>
-        <v>Dispositivo Especial Combate Incêndios Rurais (DECIR )        Período:</v>
-      </c>
+      <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -1171,55 +1180,99 @@
       <c r="J7" s="21"/>
     </row>
     <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="13" spans="2:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+    <row r="9" spans="2:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D9" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="45" t="s">
+      <c r="E9" s="52"/>
+      <c r="F9" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="3" t="s">
+      <c r="G9" s="47"/>
+      <c r="H9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I9" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="42"/>
-    </row>
-    <row r="14" spans="2:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="47"/>
+      <c r="J9" s="42"/>
+    </row>
+    <row r="10" spans="2:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
+    </row>
+    <row r="11" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="7"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="26"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="25"/>
       <c r="G15" s="26"/>
       <c r="H15" s="6"/>
@@ -1229,8 +1282,8 @@
     <row r="16" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="26"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="25"/>
       <c r="G16" s="26"/>
       <c r="H16" s="6"/>
@@ -1240,8 +1293,8 @@
     <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="26"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
       <c r="F17" s="25"/>
       <c r="G17" s="26"/>
       <c r="H17" s="6"/>
@@ -1251,8 +1304,8 @@
     <row r="18" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="26"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="25"/>
       <c r="G18" s="26"/>
       <c r="H18" s="6"/>
@@ -1262,8 +1315,8 @@
     <row r="19" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="26"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="25"/>
       <c r="G19" s="26"/>
       <c r="H19" s="6"/>
@@ -1273,8 +1326,8 @@
     <row r="20" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="26"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="25"/>
       <c r="G20" s="26"/>
       <c r="H20" s="6"/>
@@ -1284,8 +1337,8 @@
     <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="46"/>
       <c r="F21" s="25"/>
       <c r="G21" s="26"/>
       <c r="H21" s="6"/>
@@ -1295,8 +1348,8 @@
     <row r="22" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="26"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="46"/>
       <c r="F22" s="25"/>
       <c r="G22" s="26"/>
       <c r="H22" s="6"/>
@@ -1306,8 +1359,8 @@
     <row r="23" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="26"/>
+      <c r="D23" s="45"/>
+      <c r="E23" s="46"/>
       <c r="F23" s="25"/>
       <c r="G23" s="26"/>
       <c r="H23" s="6"/>
@@ -1317,8 +1370,8 @@
     <row r="24" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="46"/>
       <c r="F24" s="25"/>
       <c r="G24" s="26"/>
       <c r="H24" s="6"/>
@@ -1328,8 +1381,8 @@
     <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="26"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="25"/>
       <c r="G25" s="26"/>
       <c r="H25" s="6"/>
@@ -1339,8 +1392,8 @@
     <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="26"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="46"/>
       <c r="F26" s="25"/>
       <c r="G26" s="26"/>
       <c r="H26" s="6"/>
@@ -1350,8 +1403,8 @@
     <row r="27" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="25"/>
       <c r="G27" s="26"/>
       <c r="H27" s="6"/>
@@ -1361,8 +1414,8 @@
     <row r="28" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="26"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="25"/>
       <c r="G28" s="26"/>
       <c r="H28" s="6"/>
@@ -1372,8 +1425,8 @@
     <row r="29" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="26"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="46"/>
       <c r="F29" s="25"/>
       <c r="G29" s="26"/>
       <c r="H29" s="6"/>
@@ -1383,8 +1436,8 @@
     <row r="30" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="26"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="46"/>
       <c r="F30" s="25"/>
       <c r="G30" s="26"/>
       <c r="H30" s="6"/>
@@ -1394,8 +1447,8 @@
     <row r="31" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="26"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
       <c r="F31" s="25"/>
       <c r="G31" s="26"/>
       <c r="H31" s="6"/>
@@ -1405,8 +1458,8 @@
     <row r="32" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="26"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="25"/>
       <c r="G32" s="26"/>
       <c r="H32" s="6"/>
@@ -1416,8 +1469,8 @@
     <row r="33" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="25"/>
       <c r="G33" s="26"/>
       <c r="H33" s="6"/>
@@ -1427,8 +1480,8 @@
     <row r="34" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="26"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="46"/>
       <c r="F34" s="25"/>
       <c r="G34" s="26"/>
       <c r="H34" s="6"/>
@@ -1438,8 +1491,8 @@
     <row r="35" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="26"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="25"/>
       <c r="G35" s="26"/>
       <c r="H35" s="6"/>
@@ -1449,8 +1502,8 @@
     <row r="36" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
       <c r="F36" s="25"/>
       <c r="G36" s="26"/>
       <c r="H36" s="6"/>
@@ -1460,8 +1513,8 @@
     <row r="37" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="26"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="46"/>
       <c r="F37" s="25"/>
       <c r="G37" s="26"/>
       <c r="H37" s="6"/>
@@ -1471,8 +1524,8 @@
     <row r="38" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="26"/>
+      <c r="D38" s="45"/>
+      <c r="E38" s="46"/>
       <c r="F38" s="25"/>
       <c r="G38" s="26"/>
       <c r="H38" s="6"/>
@@ -1482,8 +1535,8 @@
     <row r="39" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="26"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
       <c r="F39" s="25"/>
       <c r="G39" s="26"/>
       <c r="H39" s="6"/>
@@ -1493,8 +1546,8 @@
     <row r="40" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="26"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="46"/>
       <c r="F40" s="25"/>
       <c r="G40" s="26"/>
       <c r="H40" s="6"/>
@@ -1504,8 +1557,8 @@
     <row r="41" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="46"/>
       <c r="F41" s="25"/>
       <c r="G41" s="26"/>
       <c r="H41" s="6"/>
@@ -1515,8 +1568,8 @@
     <row r="42" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="26"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="46"/>
       <c r="F42" s="25"/>
       <c r="G42" s="26"/>
       <c r="H42" s="6"/>
@@ -1526,8 +1579,8 @@
     <row r="43" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="26"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="46"/>
       <c r="F43" s="25"/>
       <c r="G43" s="26"/>
       <c r="H43" s="6"/>
@@ -1537,8 +1590,8 @@
     <row r="44" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="26"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="46"/>
       <c r="F44" s="25"/>
       <c r="G44" s="26"/>
       <c r="H44" s="6"/>
@@ -1548,8 +1601,8 @@
     <row r="45" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="26"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="46"/>
       <c r="F45" s="25"/>
       <c r="G45" s="26"/>
       <c r="H45" s="6"/>
@@ -1559,8 +1612,8 @@
     <row r="46" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="26"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="46"/>
       <c r="F46" s="25"/>
       <c r="G46" s="26"/>
       <c r="H46" s="6"/>
@@ -1570,8 +1623,8 @@
     <row r="47" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="26"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="46"/>
       <c r="F47" s="25"/>
       <c r="G47" s="26"/>
       <c r="H47" s="6"/>
@@ -1581,8 +1634,8 @@
     <row r="48" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="26"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="46"/>
       <c r="F48" s="25"/>
       <c r="G48" s="26"/>
       <c r="H48" s="6"/>
@@ -1592,8 +1645,8 @@
     <row r="49" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="26"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="46"/>
       <c r="F49" s="25"/>
       <c r="G49" s="26"/>
       <c r="H49" s="6"/>
@@ -1603,8 +1656,8 @@
     <row r="50" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="26"/>
+      <c r="D50" s="45"/>
+      <c r="E50" s="46"/>
       <c r="F50" s="25"/>
       <c r="G50" s="26"/>
       <c r="H50" s="6"/>
@@ -1614,8 +1667,8 @@
     <row r="51" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="26"/>
+      <c r="D51" s="45"/>
+      <c r="E51" s="46"/>
       <c r="F51" s="25"/>
       <c r="G51" s="26"/>
       <c r="H51" s="6"/>
@@ -1625,8 +1678,8 @@
     <row r="52" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="26"/>
+      <c r="D52" s="45"/>
+      <c r="E52" s="46"/>
       <c r="F52" s="25"/>
       <c r="G52" s="26"/>
       <c r="H52" s="6"/>
@@ -1636,8 +1689,8 @@
     <row r="53" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="26"/>
+      <c r="D53" s="45"/>
+      <c r="E53" s="46"/>
       <c r="F53" s="25"/>
       <c r="G53" s="26"/>
       <c r="H53" s="6"/>
@@ -1647,8 +1700,8 @@
     <row r="54" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="25"/>
-      <c r="E54" s="26"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="46"/>
       <c r="F54" s="25"/>
       <c r="G54" s="26"/>
       <c r="H54" s="6"/>
@@ -1658,8 +1711,8 @@
     <row r="55" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="25"/>
-      <c r="E55" s="26"/>
+      <c r="D55" s="45"/>
+      <c r="E55" s="46"/>
       <c r="F55" s="25"/>
       <c r="G55" s="26"/>
       <c r="H55" s="6"/>
@@ -1669,8 +1722,8 @@
     <row r="56" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="26"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="46"/>
       <c r="F56" s="25"/>
       <c r="G56" s="26"/>
       <c r="H56" s="6"/>
@@ -1680,8 +1733,8 @@
     <row r="57" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="26"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="46"/>
       <c r="F57" s="25"/>
       <c r="G57" s="26"/>
       <c r="H57" s="6"/>
@@ -1691,8 +1744,8 @@
     <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="25"/>
-      <c r="E58" s="26"/>
+      <c r="D58" s="45"/>
+      <c r="E58" s="46"/>
       <c r="F58" s="25"/>
       <c r="G58" s="26"/>
       <c r="H58" s="6"/>
@@ -1702,8 +1755,8 @@
     <row r="59" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="25"/>
-      <c r="E59" s="26"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="46"/>
       <c r="F59" s="25"/>
       <c r="G59" s="26"/>
       <c r="H59" s="6"/>
@@ -1713,8 +1766,8 @@
     <row r="60" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="25"/>
-      <c r="E60" s="26"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="46"/>
       <c r="F60" s="25"/>
       <c r="G60" s="26"/>
       <c r="H60" s="6"/>
@@ -1724,8 +1777,8 @@
     <row r="61" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="26"/>
+      <c r="D61" s="45"/>
+      <c r="E61" s="46"/>
       <c r="F61" s="25"/>
       <c r="G61" s="26"/>
       <c r="H61" s="6"/>
@@ -1735,8 +1788,8 @@
     <row r="62" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="25"/>
-      <c r="E62" s="26"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="46"/>
       <c r="F62" s="25"/>
       <c r="G62" s="26"/>
       <c r="H62" s="6"/>
@@ -1746,8 +1799,8 @@
     <row r="63" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="26"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="46"/>
       <c r="F63" s="25"/>
       <c r="G63" s="26"/>
       <c r="H63" s="6"/>
@@ -1757,8 +1810,8 @@
     <row r="64" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="26"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="46"/>
       <c r="F64" s="25"/>
       <c r="G64" s="26"/>
       <c r="H64" s="6"/>
@@ -1768,8 +1821,8 @@
     <row r="65" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="26"/>
+      <c r="D65" s="45"/>
+      <c r="E65" s="46"/>
       <c r="F65" s="25"/>
       <c r="G65" s="26"/>
       <c r="H65" s="6"/>
@@ -1779,8 +1832,8 @@
     <row r="66" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="25"/>
-      <c r="E66" s="26"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="46"/>
       <c r="F66" s="25"/>
       <c r="G66" s="26"/>
       <c r="H66" s="6"/>
@@ -1790,8 +1843,8 @@
     <row r="67" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="26"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="46"/>
       <c r="F67" s="25"/>
       <c r="G67" s="26"/>
       <c r="H67" s="6"/>
@@ -1801,8 +1854,8 @@
     <row r="68" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="26"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="46"/>
       <c r="F68" s="25"/>
       <c r="G68" s="26"/>
       <c r="H68" s="6"/>
@@ -1812,8 +1865,8 @@
     <row r="69" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="25"/>
-      <c r="E69" s="26"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="46"/>
       <c r="F69" s="25"/>
       <c r="G69" s="26"/>
       <c r="H69" s="6"/>
@@ -1823,8 +1876,8 @@
     <row r="70" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="25"/>
-      <c r="E70" s="26"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="46"/>
       <c r="F70" s="25"/>
       <c r="G70" s="26"/>
       <c r="H70" s="6"/>
@@ -1834,8 +1887,8 @@
     <row r="71" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="26"/>
+      <c r="D71" s="45"/>
+      <c r="E71" s="46"/>
       <c r="F71" s="25"/>
       <c r="G71" s="26"/>
       <c r="H71" s="6"/>
@@ -1845,8 +1898,8 @@
     <row r="72" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="26"/>
+      <c r="D72" s="45"/>
+      <c r="E72" s="46"/>
       <c r="F72" s="25"/>
       <c r="G72" s="26"/>
       <c r="H72" s="6"/>
@@ -1856,8 +1909,8 @@
     <row r="73" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="25"/>
-      <c r="E73" s="26"/>
+      <c r="D73" s="45"/>
+      <c r="E73" s="46"/>
       <c r="F73" s="25"/>
       <c r="G73" s="26"/>
       <c r="H73" s="6"/>
@@ -1867,8 +1920,8 @@
     <row r="74" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="25"/>
-      <c r="E74" s="26"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="46"/>
       <c r="F74" s="25"/>
       <c r="G74" s="26"/>
       <c r="H74" s="6"/>
@@ -1878,8 +1931,8 @@
     <row r="75" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="26"/>
+      <c r="D75" s="45"/>
+      <c r="E75" s="46"/>
       <c r="F75" s="25"/>
       <c r="G75" s="26"/>
       <c r="H75" s="6"/>
@@ -1889,8 +1942,8 @@
     <row r="76" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="26"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="46"/>
       <c r="F76" s="25"/>
       <c r="G76" s="26"/>
       <c r="H76" s="6"/>
@@ -1900,8 +1953,8 @@
     <row r="77" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="26"/>
+      <c r="D77" s="45"/>
+      <c r="E77" s="46"/>
       <c r="F77" s="25"/>
       <c r="G77" s="26"/>
       <c r="H77" s="6"/>
@@ -1911,8 +1964,8 @@
     <row r="78" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="25"/>
-      <c r="E78" s="26"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="46"/>
       <c r="F78" s="25"/>
       <c r="G78" s="26"/>
       <c r="H78" s="6"/>
@@ -1922,8 +1975,8 @@
     <row r="79" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="26"/>
+      <c r="D79" s="45"/>
+      <c r="E79" s="46"/>
       <c r="F79" s="25"/>
       <c r="G79" s="26"/>
       <c r="H79" s="6"/>
@@ -1933,8 +1986,8 @@
     <row r="80" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="26"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="46"/>
       <c r="F80" s="25"/>
       <c r="G80" s="26"/>
       <c r="H80" s="6"/>
@@ -1944,8 +1997,8 @@
     <row r="81" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="25"/>
-      <c r="E81" s="26"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="46"/>
       <c r="F81" s="25"/>
       <c r="G81" s="26"/>
       <c r="H81" s="6"/>
@@ -1955,8 +2008,8 @@
     <row r="82" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
-      <c r="D82" s="25"/>
-      <c r="E82" s="26"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="46"/>
       <c r="F82" s="25"/>
       <c r="G82" s="26"/>
       <c r="H82" s="6"/>
@@ -1966,8 +2019,8 @@
     <row r="83" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="26"/>
+      <c r="D83" s="45"/>
+      <c r="E83" s="46"/>
       <c r="F83" s="25"/>
       <c r="G83" s="26"/>
       <c r="H83" s="6"/>
@@ -1977,8 +2030,8 @@
     <row r="84" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="26"/>
+      <c r="D84" s="45"/>
+      <c r="E84" s="46"/>
       <c r="F84" s="25"/>
       <c r="G84" s="26"/>
       <c r="H84" s="6"/>
@@ -1988,8 +2041,8 @@
     <row r="85" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
-      <c r="D85" s="25"/>
-      <c r="E85" s="26"/>
+      <c r="D85" s="45"/>
+      <c r="E85" s="46"/>
       <c r="F85" s="25"/>
       <c r="G85" s="26"/>
       <c r="H85" s="6"/>
@@ -1999,8 +2052,8 @@
     <row r="86" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="26"/>
+      <c r="D86" s="45"/>
+      <c r="E86" s="46"/>
       <c r="F86" s="25"/>
       <c r="G86" s="26"/>
       <c r="H86" s="6"/>
@@ -2010,8 +2063,8 @@
     <row r="87" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="26"/>
+      <c r="D87" s="45"/>
+      <c r="E87" s="46"/>
       <c r="F87" s="25"/>
       <c r="G87" s="26"/>
       <c r="H87" s="6"/>
@@ -2021,8 +2074,8 @@
     <row r="88" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="26"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="46"/>
       <c r="F88" s="25"/>
       <c r="G88" s="26"/>
       <c r="H88" s="6"/>
@@ -2032,8 +2085,8 @@
     <row r="89" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="26"/>
+      <c r="D89" s="45"/>
+      <c r="E89" s="46"/>
       <c r="F89" s="25"/>
       <c r="G89" s="26"/>
       <c r="H89" s="6"/>
@@ -2043,8 +2096,8 @@
     <row r="90" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="26"/>
+      <c r="D90" s="45"/>
+      <c r="E90" s="46"/>
       <c r="F90" s="25"/>
       <c r="G90" s="26"/>
       <c r="H90" s="6"/>
@@ -2054,8 +2107,8 @@
     <row r="91" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="26"/>
+      <c r="D91" s="45"/>
+      <c r="E91" s="46"/>
       <c r="F91" s="25"/>
       <c r="G91" s="26"/>
       <c r="H91" s="6"/>
@@ -2065,8 +2118,8 @@
     <row r="92" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="26"/>
+      <c r="D92" s="45"/>
+      <c r="E92" s="46"/>
       <c r="F92" s="25"/>
       <c r="G92" s="26"/>
       <c r="H92" s="6"/>
@@ -2076,8 +2129,8 @@
     <row r="93" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="26"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="46"/>
       <c r="F93" s="25"/>
       <c r="G93" s="26"/>
       <c r="H93" s="6"/>
@@ -2087,8 +2140,8 @@
     <row r="94" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="26"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="46"/>
       <c r="F94" s="25"/>
       <c r="G94" s="26"/>
       <c r="H94" s="6"/>
@@ -2098,8 +2151,8 @@
     <row r="95" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="26"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="46"/>
       <c r="F95" s="25"/>
       <c r="G95" s="26"/>
       <c r="H95" s="6"/>
@@ -2109,8 +2162,8 @@
     <row r="96" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="26"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="46"/>
       <c r="F96" s="25"/>
       <c r="G96" s="26"/>
       <c r="H96" s="6"/>
@@ -2120,8 +2173,8 @@
     <row r="97" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="26"/>
+      <c r="D97" s="45"/>
+      <c r="E97" s="46"/>
       <c r="F97" s="25"/>
       <c r="G97" s="26"/>
       <c r="H97" s="6"/>
@@ -2131,8 +2184,8 @@
     <row r="98" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="25"/>
-      <c r="E98" s="26"/>
+      <c r="D98" s="45"/>
+      <c r="E98" s="46"/>
       <c r="F98" s="25"/>
       <c r="G98" s="26"/>
       <c r="H98" s="6"/>
@@ -2142,8 +2195,8 @@
     <row r="99" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="26"/>
+      <c r="D99" s="45"/>
+      <c r="E99" s="46"/>
       <c r="F99" s="25"/>
       <c r="G99" s="26"/>
       <c r="H99" s="6"/>
@@ -2153,8 +2206,8 @@
     <row r="100" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="26"/>
+      <c r="D100" s="45"/>
+      <c r="E100" s="46"/>
       <c r="F100" s="25"/>
       <c r="G100" s="26"/>
       <c r="H100" s="6"/>
@@ -2164,8 +2217,8 @@
     <row r="101" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="25"/>
-      <c r="E101" s="26"/>
+      <c r="D101" s="45"/>
+      <c r="E101" s="46"/>
       <c r="F101" s="25"/>
       <c r="G101" s="26"/>
       <c r="H101" s="6"/>
@@ -2175,8 +2228,8 @@
     <row r="102" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="25"/>
-      <c r="E102" s="26"/>
+      <c r="D102" s="45"/>
+      <c r="E102" s="46"/>
       <c r="F102" s="25"/>
       <c r="G102" s="26"/>
       <c r="H102" s="6"/>
@@ -2186,8 +2239,8 @@
     <row r="103" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="26"/>
+      <c r="D103" s="45"/>
+      <c r="E103" s="46"/>
       <c r="F103" s="25"/>
       <c r="G103" s="26"/>
       <c r="H103" s="6"/>
@@ -2197,8 +2250,8 @@
     <row r="104" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="26"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="46"/>
       <c r="F104" s="25"/>
       <c r="G104" s="26"/>
       <c r="H104" s="6"/>
@@ -2208,8 +2261,8 @@
     <row r="105" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="25"/>
-      <c r="E105" s="26"/>
+      <c r="D105" s="45"/>
+      <c r="E105" s="46"/>
       <c r="F105" s="25"/>
       <c r="G105" s="26"/>
       <c r="H105" s="6"/>
@@ -2219,8 +2272,8 @@
     <row r="106" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="25"/>
-      <c r="E106" s="26"/>
+      <c r="D106" s="45"/>
+      <c r="E106" s="46"/>
       <c r="F106" s="25"/>
       <c r="G106" s="26"/>
       <c r="H106" s="6"/>
@@ -2230,8 +2283,8 @@
     <row r="107" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="26"/>
+      <c r="D107" s="45"/>
+      <c r="E107" s="46"/>
       <c r="F107" s="25"/>
       <c r="G107" s="26"/>
       <c r="H107" s="6"/>
@@ -2241,8 +2294,8 @@
     <row r="108" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="26"/>
+      <c r="D108" s="45"/>
+      <c r="E108" s="46"/>
       <c r="F108" s="25"/>
       <c r="G108" s="26"/>
       <c r="H108" s="6"/>
@@ -2252,8 +2305,8 @@
     <row r="109" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="26"/>
+      <c r="D109" s="45"/>
+      <c r="E109" s="46"/>
       <c r="F109" s="25"/>
       <c r="G109" s="26"/>
       <c r="H109" s="6"/>
@@ -2263,8 +2316,8 @@
     <row r="110" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="25"/>
-      <c r="E110" s="26"/>
+      <c r="D110" s="45"/>
+      <c r="E110" s="46"/>
       <c r="F110" s="25"/>
       <c r="G110" s="26"/>
       <c r="H110" s="6"/>
@@ -2274,470 +2327,430 @@
     <row r="111" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="26"/>
+      <c r="D111" s="45"/>
+      <c r="E111" s="46"/>
       <c r="F111" s="25"/>
       <c r="G111" s="26"/>
       <c r="H111" s="6"/>
       <c r="I111" s="25"/>
       <c r="J111" s="26"/>
     </row>
-    <row r="112" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="7"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="25"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
-    </row>
-    <row r="113" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="7"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="25"/>
-      <c r="E113" s="26"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="26"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="25"/>
-      <c r="J113" s="26"/>
-    </row>
-    <row r="114" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="7"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="25"/>
-      <c r="E114" s="26"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="26"/>
-      <c r="H114" s="6"/>
-      <c r="I114" s="25"/>
-      <c r="J114" s="26"/>
-    </row>
-    <row r="115" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="7"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="26"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="26"/>
-      <c r="H115" s="6"/>
-      <c r="I115" s="25"/>
-      <c r="J115" s="26"/>
-    </row>
-    <row r="116" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="E116" s="9"/>
-      <c r="F116" s="40" t="s">
+    <row r="112" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G116" s="41"/>
-      <c r="H116" s="10">
-        <f>SUM(H14:H115)</f>
+      <c r="G112" s="41"/>
+      <c r="H112" s="10">
+        <f>SUM(H10:H111)</f>
         <v>0</v>
       </c>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-    </row>
-    <row r="117" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B118" s="27" t="s">
+      <c r="I112" s="11"/>
+      <c r="J112" s="11"/>
+    </row>
+    <row r="113" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B114" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="29"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B119" s="30"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="31"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="31"/>
-      <c r="J119" s="32"/>
-    </row>
-    <row r="120" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C120" s="48"/>
-      <c r="D120" s="48"/>
-      <c r="E120" s="16"/>
-      <c r="H120" s="48"/>
-      <c r="I120" s="48"/>
-      <c r="J120" s="16"/>
-    </row>
-    <row r="121" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C121" s="12"/>
-      <c r="D121" s="18" t="s">
+      <c r="C114" s="28"/>
+      <c r="D114" s="28"/>
+      <c r="E114" s="28"/>
+      <c r="F114" s="28"/>
+      <c r="G114" s="28"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
+      <c r="J114" s="29"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B115" s="30"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
+      <c r="J115" s="32"/>
+    </row>
+    <row r="116" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C116" s="50"/>
+      <c r="D116" s="50"/>
+      <c r="E116" s="16"/>
+      <c r="H116" s="50"/>
+      <c r="I116" s="50"/>
+      <c r="J116" s="16"/>
+    </row>
+    <row r="117" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C117" s="12"/>
+      <c r="D117" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G121" s="33" t="s">
+      <c r="G117" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="H121" s="34"/>
-      <c r="I121" s="35"/>
-    </row>
-    <row r="122" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="13"/>
-      <c r="D122" s="17"/>
-      <c r="G122" s="22"/>
-      <c r="H122" s="23"/>
-      <c r="I122" s="24"/>
-      <c r="J122" s="14"/>
-    </row>
-    <row r="123" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D123" s="19" t="s">
+      <c r="H117" s="34"/>
+      <c r="I117" s="35"/>
+    </row>
+    <row r="118" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B118" s="13"/>
+      <c r="D118" s="17"/>
+      <c r="G118" s="22"/>
+      <c r="H118" s="23"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="14"/>
+    </row>
+    <row r="119" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D119" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G123" s="36" t="s">
+      <c r="G119" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H123" s="37"/>
-      <c r="I123" s="38"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="13"/>
-      <c r="B124" s="13" t="s">
+      <c r="H119" s="37"/>
+      <c r="I119" s="38"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="13"/>
+      <c r="B120" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I124" s="39" t="s">
+      <c r="I120" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J124" s="39"/>
-    </row>
+      <c r="J120" s="39"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="321">
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="C120:D120"/>
-    <mergeCell ref="H120:I120"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="H116:I116"/>
     <mergeCell ref="B8:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="B7:J7"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
     <mergeCell ref="D53:E53"/>
     <mergeCell ref="D54:E54"/>
     <mergeCell ref="D55:E55"/>
     <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
     <mergeCell ref="D63:E63"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
     <mergeCell ref="D73:E73"/>
     <mergeCell ref="D74:E74"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
     <mergeCell ref="D83:E83"/>
     <mergeCell ref="D84:E84"/>
     <mergeCell ref="D85:E85"/>
     <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
     <mergeCell ref="D93:E93"/>
     <mergeCell ref="D94:E94"/>
     <mergeCell ref="D95:E95"/>
     <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="D97:E97"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
     <mergeCell ref="F24:G24"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="F26:G26"/>
     <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
     <mergeCell ref="F34:G34"/>
     <mergeCell ref="F35:G35"/>
     <mergeCell ref="F36:G36"/>
     <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="F45:G45"/>
     <mergeCell ref="F46:G46"/>
     <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
     <mergeCell ref="F54:G54"/>
     <mergeCell ref="F55:G55"/>
     <mergeCell ref="F56:G56"/>
     <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
     <mergeCell ref="F64:G64"/>
     <mergeCell ref="F65:G65"/>
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
     <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
     <mergeCell ref="F104:G104"/>
     <mergeCell ref="F105:G105"/>
     <mergeCell ref="F106:G106"/>
     <mergeCell ref="F107:G107"/>
-    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F108:G108"/>
     <mergeCell ref="F99:G99"/>
     <mergeCell ref="F100:G100"/>
     <mergeCell ref="F101:G101"/>
     <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F103:G103"/>
     <mergeCell ref="F94:G94"/>
     <mergeCell ref="F95:G95"/>
     <mergeCell ref="F96:G96"/>
     <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="I14:J14"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
     <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F113:G113"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="F115:G115"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
     <mergeCell ref="I56:J56"/>
     <mergeCell ref="I57:J57"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I75:J75"/>
     <mergeCell ref="I66:J66"/>
     <mergeCell ref="I67:J67"/>
     <mergeCell ref="I68:J68"/>
     <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
     <mergeCell ref="I76:J76"/>
     <mergeCell ref="I77:J77"/>
     <mergeCell ref="I78:J78"/>
     <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
     <mergeCell ref="I86:J86"/>
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="I88:J88"/>
     <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="B5:J6"/>
+    <mergeCell ref="B2:J4"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="B114:J115"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="I105:J105"/>
     <mergeCell ref="I96:J96"/>
     <mergeCell ref="I97:J97"/>
     <mergeCell ref="I98:J98"/>
     <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I100:J100"/>
     <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="B5:J6"/>
-    <mergeCell ref="B2:J4"/>
-    <mergeCell ref="G122:I122"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="B118:J119"/>
-    <mergeCell ref="G121:I121"/>
-    <mergeCell ref="G123:I123"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="I95:J95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/templates/anepc_template.xlsx
+++ b/templates/anepc_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geral\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0144F1AB-2BCE-48D2-AC7D-64C3E0FBF598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1AC1AD-1991-4BB0-9896-060A9425EBF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{430CD659-EAEA-4DE7-8894-3AC5E0B8EDA6}"/>
   </bookViews>
@@ -603,12 +603,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -618,12 +669,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -662,51 +707,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1088,7 +1088,7 @@
   <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J7"/>
+      <selection activeCell="B2" sqref="B2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1097,10 +1097,10 @@
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="3.5703125" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="4.28515625" customWidth="1"/>
     <col min="10" max="10" width="29.28515625" customWidth="1"/>
     <col min="11" max="11" width="2.7109375" customWidth="1"/>
@@ -1110,84 +1110,84 @@
   <sheetData>
     <row r="1" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
     </row>
     <row r="7" spans="2:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
     </row>
     <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="15"/>
     </row>
     <row r="9" spans="2:10" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1197,1153 +1197,1153 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="52"/>
-      <c r="F9" s="47" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="47"/>
+      <c r="G9" s="28"/>
       <c r="H9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="42"/>
+      <c r="J9" s="33"/>
     </row>
     <row r="10" spans="2:10" ht="12.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="44"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="35"/>
     </row>
     <row r="11" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="7"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="32"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="32"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="32"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="32"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="32"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="32"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="32"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="32"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="26"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="32"/>
     </row>
     <row r="27" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="26"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="32"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
     </row>
     <row r="28" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="26"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="32"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="26"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="8"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="26"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="26"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="32"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="46"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="26"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="32"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="26"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="32"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="32"/>
     </row>
     <row r="36" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="26"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="32"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="7"/>
       <c r="C37" s="8"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="46"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="26"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="32"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="26"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="46"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="32"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="26"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="26"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="32"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="46"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="26"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="32"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="26"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="32"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="26"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="32"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="26"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="45"/>
-      <c r="E44" s="46"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="26"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="32"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="46"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="26"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="32"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="26"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="46"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="32"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="26"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="32"/>
     </row>
     <row r="47" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="46"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="26"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="32"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="26"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
     </row>
     <row r="48" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="46"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="26"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="32"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
     </row>
     <row r="49" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
-      <c r="D49" s="45"/>
-      <c r="E49" s="46"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
     </row>
     <row r="50" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
-      <c r="D50" s="45"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="25"/>
-      <c r="G50" s="26"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="32"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="26"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="32"/>
     </row>
     <row r="51" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" s="8"/>
-      <c r="D51" s="45"/>
-      <c r="E51" s="46"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="32"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
-      <c r="D52" s="45"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="26"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="32"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
-      <c r="D53" s="45"/>
-      <c r="E53" s="46"/>
-      <c r="F53" s="25"/>
-      <c r="G53" s="26"/>
+      <c r="D53" s="20"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="32"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="26"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="32"/>
     </row>
     <row r="54" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
-      <c r="D54" s="45"/>
-      <c r="E54" s="46"/>
-      <c r="F54" s="25"/>
-      <c r="G54" s="26"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="32"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="26"/>
+      <c r="I54" s="31"/>
+      <c r="J54" s="32"/>
     </row>
     <row r="55" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
-      <c r="D55" s="45"/>
-      <c r="E55" s="46"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="26"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="32"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="26"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="32"/>
     </row>
     <row r="56" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="7"/>
       <c r="C56" s="8"/>
-      <c r="D56" s="45"/>
-      <c r="E56" s="46"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
+      <c r="D56" s="20"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="32"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="26"/>
+      <c r="I56" s="31"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
-      <c r="D57" s="45"/>
-      <c r="E57" s="46"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="26"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="32"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
+      <c r="I57" s="31"/>
+      <c r="J57" s="32"/>
     </row>
     <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
-      <c r="D58" s="45"/>
-      <c r="E58" s="46"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="26"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="32"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
+      <c r="I58" s="31"/>
+      <c r="J58" s="32"/>
     </row>
     <row r="59" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="46"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="26"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="32"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="26"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="32"/>
     </row>
     <row r="60" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
-      <c r="D60" s="45"/>
-      <c r="E60" s="46"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="26"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="32"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="46"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="26"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="32"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="I61" s="31"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="46"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="26"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="21"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="32"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="26"/>
+      <c r="I62" s="31"/>
+      <c r="J62" s="32"/>
     </row>
     <row r="63" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="45"/>
-      <c r="E63" s="46"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="26"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="32"/>
       <c r="H63" s="6"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="26"/>
+      <c r="I63" s="31"/>
+      <c r="J63" s="32"/>
     </row>
     <row r="64" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="7"/>
       <c r="C64" s="8"/>
-      <c r="D64" s="45"/>
-      <c r="E64" s="46"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="26"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="21"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="32"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="26"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="32"/>
     </row>
     <row r="65" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
-      <c r="D65" s="45"/>
-      <c r="E65" s="46"/>
-      <c r="F65" s="25"/>
-      <c r="G65" s="26"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="21"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="32"/>
       <c r="H65" s="6"/>
-      <c r="I65" s="25"/>
-      <c r="J65" s="26"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="45"/>
-      <c r="E66" s="46"/>
-      <c r="F66" s="25"/>
-      <c r="G66" s="26"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="21"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="32"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
+      <c r="I66" s="31"/>
+      <c r="J66" s="32"/>
     </row>
     <row r="67" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="45"/>
-      <c r="E67" s="46"/>
-      <c r="F67" s="25"/>
-      <c r="G67" s="26"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="21"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="32"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
+      <c r="I67" s="31"/>
+      <c r="J67" s="32"/>
     </row>
     <row r="68" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="45"/>
-      <c r="E68" s="46"/>
-      <c r="F68" s="25"/>
-      <c r="G68" s="26"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="21"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="32"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="25"/>
-      <c r="J68" s="26"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="32"/>
     </row>
     <row r="69" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69" s="7"/>
       <c r="C69" s="8"/>
-      <c r="D69" s="45"/>
-      <c r="E69" s="46"/>
-      <c r="F69" s="25"/>
-      <c r="G69" s="26"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="32"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="I69" s="31"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="7"/>
       <c r="C70" s="8"/>
-      <c r="D70" s="45"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="25"/>
-      <c r="G70" s="26"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="21"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="32"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="I70" s="31"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
-      <c r="D71" s="45"/>
-      <c r="E71" s="46"/>
-      <c r="F71" s="25"/>
-      <c r="G71" s="26"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="21"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="32"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="26"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="32"/>
     </row>
     <row r="72" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
-      <c r="D72" s="45"/>
-      <c r="E72" s="46"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="26"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="32"/>
       <c r="H72" s="6"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="26"/>
+      <c r="I72" s="31"/>
+      <c r="J72" s="32"/>
     </row>
     <row r="73" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
-      <c r="D73" s="45"/>
-      <c r="E73" s="46"/>
-      <c r="F73" s="25"/>
-      <c r="G73" s="26"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="21"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="32"/>
       <c r="H73" s="6"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="26"/>
+      <c r="I73" s="31"/>
+      <c r="J73" s="32"/>
     </row>
     <row r="74" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
-      <c r="D74" s="45"/>
-      <c r="E74" s="46"/>
-      <c r="F74" s="25"/>
-      <c r="G74" s="26"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="21"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="32"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="26"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
-      <c r="D75" s="45"/>
-      <c r="E75" s="46"/>
-      <c r="F75" s="25"/>
-      <c r="G75" s="26"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="32"/>
       <c r="H75" s="6"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="32"/>
     </row>
     <row r="76" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="7"/>
       <c r="C76" s="8"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="25"/>
-      <c r="G76" s="26"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="21"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="32"/>
       <c r="H76" s="6"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="32"/>
     </row>
     <row r="77" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
-      <c r="D77" s="45"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="26"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="32"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="26"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="32"/>
     </row>
     <row r="78" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
-      <c r="D78" s="45"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="25"/>
-      <c r="G78" s="26"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="32"/>
       <c r="H78" s="6"/>
-      <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
-      <c r="D79" s="45"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="25"/>
-      <c r="G79" s="26"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="32"/>
       <c r="H79" s="6"/>
-      <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
-      <c r="D80" s="45"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="25"/>
-      <c r="G80" s="26"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="21"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="32"/>
       <c r="H80" s="6"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="26"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="32"/>
     </row>
     <row r="81" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="45"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="25"/>
-      <c r="G81" s="26"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="32"/>
       <c r="H81" s="6"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="26"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="32"/>
     </row>
     <row r="82" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
-      <c r="D82" s="45"/>
-      <c r="E82" s="46"/>
-      <c r="F82" s="25"/>
-      <c r="G82" s="26"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="21"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="32"/>
       <c r="H82" s="6"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="26"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="32"/>
     </row>
     <row r="83" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
-      <c r="D83" s="45"/>
-      <c r="E83" s="46"/>
-      <c r="F83" s="25"/>
-      <c r="G83" s="26"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="32"/>
       <c r="H83" s="6"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="26"/>
+      <c r="I83" s="31"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
-      <c r="D84" s="45"/>
-      <c r="E84" s="46"/>
-      <c r="F84" s="25"/>
-      <c r="G84" s="26"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="32"/>
       <c r="H84" s="6"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
+      <c r="I84" s="31"/>
+      <c r="J84" s="32"/>
     </row>
     <row r="85" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
-      <c r="D85" s="45"/>
-      <c r="E85" s="46"/>
-      <c r="F85" s="25"/>
-      <c r="G85" s="26"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="32"/>
       <c r="H85" s="6"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
+      <c r="I85" s="31"/>
+      <c r="J85" s="32"/>
     </row>
     <row r="86" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
-      <c r="D86" s="45"/>
-      <c r="E86" s="46"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="26"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="21"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="32"/>
       <c r="H86" s="6"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="26"/>
+      <c r="I86" s="31"/>
+      <c r="J86" s="32"/>
     </row>
     <row r="87" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
-      <c r="D87" s="45"/>
-      <c r="E87" s="46"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="26"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="21"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="32"/>
       <c r="H87" s="6"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="I87" s="31"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="46"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="26"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="21"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="32"/>
       <c r="H88" s="6"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
-      <c r="D89" s="45"/>
-      <c r="E89" s="46"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="26"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="32"/>
       <c r="H89" s="6"/>
-      <c r="I89" s="25"/>
-      <c r="J89" s="26"/>
+      <c r="I89" s="31"/>
+      <c r="J89" s="32"/>
     </row>
     <row r="90" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
-      <c r="D90" s="45"/>
-      <c r="E90" s="46"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="26"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="21"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="32"/>
       <c r="H90" s="6"/>
-      <c r="I90" s="25"/>
-      <c r="J90" s="26"/>
+      <c r="I90" s="31"/>
+      <c r="J90" s="32"/>
     </row>
     <row r="91" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
-      <c r="D91" s="45"/>
-      <c r="E91" s="46"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="26"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="21"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="32"/>
       <c r="H91" s="6"/>
-      <c r="I91" s="25"/>
-      <c r="J91" s="26"/>
+      <c r="I91" s="31"/>
+      <c r="J91" s="32"/>
     </row>
     <row r="92" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="7"/>
       <c r="C92" s="8"/>
-      <c r="D92" s="45"/>
-      <c r="E92" s="46"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="26"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="21"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="32"/>
       <c r="H92" s="6"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="26"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
-      <c r="D93" s="45"/>
-      <c r="E93" s="46"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="26"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="21"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="32"/>
       <c r="H93" s="6"/>
-      <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="32"/>
     </row>
     <row r="94" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
-      <c r="D94" s="45"/>
-      <c r="E94" s="46"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="26"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="21"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="32"/>
       <c r="H94" s="6"/>
-      <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="32"/>
     </row>
     <row r="95" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="46"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="26"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="21"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="32"/>
       <c r="H95" s="6"/>
-      <c r="I95" s="25"/>
-      <c r="J95" s="26"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="32"/>
     </row>
     <row r="96" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
-      <c r="D96" s="45"/>
-      <c r="E96" s="46"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="26"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="21"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="32"/>
       <c r="H96" s="6"/>
-      <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
-      <c r="D97" s="45"/>
-      <c r="E97" s="46"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="26"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="32"/>
       <c r="H97" s="6"/>
-      <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
-      <c r="D98" s="45"/>
-      <c r="E98" s="46"/>
-      <c r="F98" s="25"/>
-      <c r="G98" s="26"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="21"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="32"/>
       <c r="H98" s="6"/>
-      <c r="I98" s="25"/>
-      <c r="J98" s="26"/>
+      <c r="I98" s="31"/>
+      <c r="J98" s="32"/>
     </row>
     <row r="99" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="46"/>
-      <c r="F99" s="25"/>
-      <c r="G99" s="26"/>
+      <c r="D99" s="20"/>
+      <c r="E99" s="21"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="32"/>
       <c r="H99" s="6"/>
-      <c r="I99" s="25"/>
-      <c r="J99" s="26"/>
+      <c r="I99" s="31"/>
+      <c r="J99" s="32"/>
     </row>
     <row r="100" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
-      <c r="D100" s="45"/>
-      <c r="E100" s="46"/>
-      <c r="F100" s="25"/>
-      <c r="G100" s="26"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="21"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="32"/>
       <c r="H100" s="6"/>
-      <c r="I100" s="25"/>
-      <c r="J100" s="26"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="32"/>
     </row>
     <row r="101" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
-      <c r="D101" s="45"/>
-      <c r="E101" s="46"/>
-      <c r="F101" s="25"/>
-      <c r="G101" s="26"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="21"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="32"/>
       <c r="H101" s="6"/>
-      <c r="I101" s="25"/>
-      <c r="J101" s="26"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="32"/>
     </row>
     <row r="102" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
-      <c r="D102" s="45"/>
-      <c r="E102" s="46"/>
-      <c r="F102" s="25"/>
-      <c r="G102" s="26"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="32"/>
       <c r="H102" s="6"/>
-      <c r="I102" s="25"/>
-      <c r="J102" s="26"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="32"/>
     </row>
     <row r="103" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="46"/>
-      <c r="F103" s="25"/>
-      <c r="G103" s="26"/>
+      <c r="D103" s="20"/>
+      <c r="E103" s="21"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="32"/>
       <c r="H103" s="6"/>
-      <c r="I103" s="25"/>
-      <c r="J103" s="26"/>
+      <c r="I103" s="31"/>
+      <c r="J103" s="32"/>
     </row>
     <row r="104" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="46"/>
-      <c r="F104" s="25"/>
-      <c r="G104" s="26"/>
+      <c r="D104" s="20"/>
+      <c r="E104" s="21"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="32"/>
       <c r="H104" s="6"/>
-      <c r="I104" s="25"/>
-      <c r="J104" s="26"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="32"/>
     </row>
     <row r="105" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
-      <c r="D105" s="45"/>
-      <c r="E105" s="46"/>
-      <c r="F105" s="25"/>
-      <c r="G105" s="26"/>
+      <c r="D105" s="20"/>
+      <c r="E105" s="21"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="32"/>
       <c r="H105" s="6"/>
-      <c r="I105" s="25"/>
-      <c r="J105" s="26"/>
+      <c r="I105" s="31"/>
+      <c r="J105" s="32"/>
     </row>
     <row r="106" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="46"/>
-      <c r="F106" s="25"/>
-      <c r="G106" s="26"/>
+      <c r="D106" s="20"/>
+      <c r="E106" s="21"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="32"/>
       <c r="H106" s="6"/>
-      <c r="I106" s="25"/>
-      <c r="J106" s="26"/>
+      <c r="I106" s="31"/>
+      <c r="J106" s="32"/>
     </row>
     <row r="107" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
-      <c r="D107" s="45"/>
-      <c r="E107" s="46"/>
-      <c r="F107" s="25"/>
-      <c r="G107" s="26"/>
+      <c r="D107" s="20"/>
+      <c r="E107" s="21"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="32"/>
       <c r="H107" s="6"/>
-      <c r="I107" s="25"/>
-      <c r="J107" s="26"/>
+      <c r="I107" s="31"/>
+      <c r="J107" s="32"/>
     </row>
     <row r="108" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
-      <c r="D108" s="45"/>
-      <c r="E108" s="46"/>
-      <c r="F108" s="25"/>
-      <c r="G108" s="26"/>
+      <c r="D108" s="20"/>
+      <c r="E108" s="21"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="32"/>
       <c r="H108" s="6"/>
-      <c r="I108" s="25"/>
-      <c r="J108" s="26"/>
+      <c r="I108" s="31"/>
+      <c r="J108" s="32"/>
     </row>
     <row r="109" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
-      <c r="D109" s="45"/>
-      <c r="E109" s="46"/>
-      <c r="F109" s="25"/>
-      <c r="G109" s="26"/>
+      <c r="D109" s="20"/>
+      <c r="E109" s="21"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="32"/>
       <c r="H109" s="6"/>
-      <c r="I109" s="25"/>
-      <c r="J109" s="26"/>
+      <c r="I109" s="31"/>
+      <c r="J109" s="32"/>
     </row>
     <row r="110" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B110" s="7"/>
       <c r="C110" s="8"/>
-      <c r="D110" s="45"/>
-      <c r="E110" s="46"/>
-      <c r="F110" s="25"/>
-      <c r="G110" s="26"/>
+      <c r="D110" s="20"/>
+      <c r="E110" s="21"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="32"/>
       <c r="H110" s="6"/>
-      <c r="I110" s="25"/>
-      <c r="J110" s="26"/>
+      <c r="I110" s="31"/>
+      <c r="J110" s="32"/>
     </row>
     <row r="111" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
-      <c r="D111" s="45"/>
-      <c r="E111" s="46"/>
-      <c r="F111" s="25"/>
-      <c r="G111" s="26"/>
+      <c r="D111" s="20"/>
+      <c r="E111" s="21"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="32"/>
       <c r="H111" s="6"/>
-      <c r="I111" s="25"/>
-      <c r="J111" s="26"/>
+      <c r="I111" s="31"/>
+      <c r="J111" s="32"/>
     </row>
     <row r="112" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
-      <c r="F112" s="40" t="s">
+      <c r="F112" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G112" s="41"/>
+      <c r="G112" s="37"/>
       <c r="H112" s="10">
         <f>SUM(H10:H111)</f>
         <v>0</v>
@@ -2353,35 +2353,35 @@
     </row>
     <row r="113" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B114" s="27" t="s">
+      <c r="B114" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="29"/>
+      <c r="C114" s="43"/>
+      <c r="D114" s="43"/>
+      <c r="E114" s="43"/>
+      <c r="F114" s="43"/>
+      <c r="G114" s="43"/>
+      <c r="H114" s="43"/>
+      <c r="I114" s="43"/>
+      <c r="J114" s="44"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B115" s="30"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="31"/>
-      <c r="I115" s="31"/>
-      <c r="J115" s="32"/>
+      <c r="B115" s="45"/>
+      <c r="C115" s="46"/>
+      <c r="D115" s="46"/>
+      <c r="E115" s="46"/>
+      <c r="F115" s="46"/>
+      <c r="G115" s="46"/>
+      <c r="H115" s="46"/>
+      <c r="I115" s="46"/>
+      <c r="J115" s="47"/>
     </row>
     <row r="116" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C116" s="50"/>
-      <c r="D116" s="50"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
       <c r="E116" s="16"/>
-      <c r="H116" s="50"/>
-      <c r="I116" s="50"/>
+      <c r="H116" s="22"/>
+      <c r="I116" s="22"/>
       <c r="J116" s="16"/>
     </row>
     <row r="117" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2389,39 +2389,39 @@
       <c r="D117" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G117" s="33" t="s">
+      <c r="G117" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="H117" s="34"/>
-      <c r="I117" s="35"/>
+      <c r="H117" s="49"/>
+      <c r="I117" s="50"/>
     </row>
     <row r="118" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="13"/>
       <c r="D118" s="17"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="23"/>
-      <c r="I118" s="24"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="41"/>
       <c r="J118" s="14"/>
     </row>
     <row r="119" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D119" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G119" s="36" t="s">
+      <c r="G119" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="H119" s="37"/>
-      <c r="I119" s="38"/>
+      <c r="H119" s="52"/>
+      <c r="I119" s="53"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="13"/>
       <c r="B120" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I120" s="39" t="s">
+      <c r="I120" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="J120" s="39"/>
+      <c r="J120" s="54"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25"/>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25"/>
@@ -2430,6 +2430,303 @@
     <row r="125" spans="1:10" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="321">
+    <mergeCell ref="B5:J6"/>
+    <mergeCell ref="B2:J4"/>
+    <mergeCell ref="G118:I118"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="B114:J115"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="G119:I119"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="F111:G111"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
@@ -2454,303 +2751,6 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F105:G105"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="F107:G107"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="F109:G109"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="F111:G111"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="B5:J6"/>
-    <mergeCell ref="B2:J4"/>
-    <mergeCell ref="G118:I118"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="B114:J115"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="G119:I119"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="I91:J91"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" r:id="rId1"/>
